--- a/src/databases/WP2_BoM.xlsx
+++ b/src/databases/WP2_BoM.xlsx
@@ -1,45 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>NumOFunits</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>{‘Device0’: (0,0,30), ‘Device1’: (100,0,30), ‘Device2’: (0,100,30), ‘Device3’: (100,100,30)}</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -66,29 +49,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -135,7 +103,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -170,7 +138,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,20 +205,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -372,43 +336,63 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/databases/WP2_BoM.xlsx
+++ b/src/databases/WP2_BoM.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="units" sheetId="2" r:id="rId1"/>
+    <sheet name="position" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -18,12 +19,60 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>UMT - x</t>
+  </si>
+  <si>
+    <t>UMT - z</t>
+  </si>
+  <si>
+    <t>UMT - y</t>
+  </si>
+  <si>
+    <t>Device0</t>
+  </si>
+  <si>
+    <t>Device1</t>
+  </si>
+  <si>
+    <t>Device2</t>
+  </si>
+  <si>
+    <t>Device3</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Number Units</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +95,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,13 +443,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/src/databases/WP2_BoM.xlsx
+++ b/src/databases/WP2_BoM.xlsx
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -455,12 +455,15 @@
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2">
         <v>4</v>
       </c>
